--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2567725.590641202</v>
+        <v>2671959.29903465</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9010369.080114352</v>
+        <v>9019281.97136596</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>97.18149940501797</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>175.293324286984</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>10.28741306598021</v>
+        <v>227.8726175723288</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -908,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>270.015547892469</v>
+        <v>184.4241132557143</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.817218682479</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>128.4038356853009</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>141.1670621529076</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>189.7117828919413</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>274.7944255145766</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>159.8902235615879</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1339,25 +1341,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>14.44513037171059</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444129</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695533</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>31.24750433886511</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>192.7891334611256</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>132.1190787273706</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>64.80049431059871</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>68.62151774815479</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2050,25 +2052,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>212.326702149713</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>107.5034532829751</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2293,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>72.2376664596877</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>32.47207866589218</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2527,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>64.91921363453658</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2555,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2761,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>43.98166197004305</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.6921136716495</v>
+        <v>73.74785292486325</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>31.66396365647216</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>28.5400493088928</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>127.1477159870295</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3472,16 +3474,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>111.3213230702139</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>25.52471385612679</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>281.5403368976807</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>71.58885292963951</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3952,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>105.6356839950558</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>126.6035148834797</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>100.2207207382363</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.236214140705</v>
+        <v>1699.061860336089</v>
       </c>
       <c r="C2" t="n">
-        <v>926.2736972002938</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D2" t="n">
-        <v>926.2736972002938</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>1699.061860336089</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>1699.061860336089</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>608.0847133907091</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="C4" t="n">
-        <v>608.0847133907091</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="D4" t="n">
-        <v>457.9680739783734</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.67533979849</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V4" t="n">
-        <v>1346.284013469217</v>
+        <v>817.9412670696076</v>
       </c>
       <c r="W4" t="n">
-        <v>1056.866843432257</v>
+        <v>528.524097032647</v>
       </c>
       <c r="X4" t="n">
-        <v>828.8772925342392</v>
+        <v>528.524097032647</v>
       </c>
       <c r="Y4" t="n">
-        <v>608.0847133907091</v>
+        <v>528.524097032647</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1501.213961756485</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C5" t="n">
-        <v>1132.251444816073</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D5" t="n">
-        <v>773.985746209323</v>
+        <v>985.1133520179753</v>
       </c>
       <c r="E5" t="n">
-        <v>388.1974936110788</v>
+        <v>599.325099419731</v>
       </c>
       <c r="F5" t="n">
-        <v>381.2519928618753</v>
+        <v>592.3795986705276</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927146</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410104</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066533</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796419</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796419</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y5" t="n">
-        <v>1887.813801820607</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811102</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999832</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387319</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332764</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601614</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927795</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064709</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266132</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959803</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
@@ -4750,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484846</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046023</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676417</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696244</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>310.0549803959803</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.526882613612</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.898819086399</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,22 +4801,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993395</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267231</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.03470992366</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653546</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653546</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y8" t="n">
-        <v>1792.126722677734</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4874,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4887,16 +4889,16 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>647.3667606649364</v>
+        <v>471.5602567208166</v>
       </c>
       <c r="C10" t="n">
-        <v>478.4305777370295</v>
+        <v>471.5602567208166</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>471.5602567208166</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>471.5602567208166</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>471.5602567208166</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1601.106434636041</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1346.421946430154</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>1057.004776393193</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="X10" t="n">
-        <v>829.0152254951761</v>
+        <v>874.0013006945865</v>
       </c>
       <c r="Y10" t="n">
-        <v>829.0152254951761</v>
+        <v>653.2087215510563</v>
       </c>
     </row>
     <row r="11">
@@ -5021,67 +5023,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362678</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.5840502527391</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>95.5840502527391</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898186992</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2415.399947884438</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2232.545113539342</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2012.943648562283</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1723.868421906481</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1469.183933700594</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1179.766763663633</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>951.777212765616</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y13" t="n">
-        <v>951.777212765616</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797191</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438167</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C16" t="n">
         <v>782.8410298377091</v>
@@ -5431,55 +5433,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2381.508038822081</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2198.653204476985</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1979.051739499926</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1689.976512844124</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1689.976512844124</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1400.559342807163</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>951.777212765616</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,64 +5503,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111739</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797191</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>709.4207169875</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>559.3040775751642</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5680,43 +5682,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487571</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510512</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1762.98966419767</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1508.305175991783</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1508.305175991783</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.315625093766</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5750,22 +5752,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,22 +5837,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811333</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532264</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5941,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1904.493740652238</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1649.809252446351</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1360.39208240939</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>1132.402531511373</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.402531511373</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6065,31 @@
         <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>2383.002557118213</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K24" t="n">
-        <v>2383.002557118213</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L24" t="n">
-        <v>2383.002557118213</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M24" t="n">
-        <v>2980.381044744765</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="N24" t="n">
-        <v>3607.979008299372</v>
+        <v>3838.083511855032</v>
       </c>
       <c r="O24" t="n">
-        <v>4159.888738538659</v>
+        <v>4389.993242094319</v>
       </c>
       <c r="P24" t="n">
-        <v>4583.511888033727</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R24" t="n">
         <v>4690.833152398593</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3200.825397924057</v>
+        <v>984.5772922261132</v>
       </c>
       <c r="C25" t="n">
-        <v>3031.88921499615</v>
+        <v>815.6411092982063</v>
       </c>
       <c r="D25" t="n">
-        <v>2881.772575583814</v>
+        <v>665.5244698858705</v>
       </c>
       <c r="E25" t="n">
-        <v>2733.859482001421</v>
+        <v>517.6113763034774</v>
       </c>
       <c r="F25" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4375.357651038691</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4375.357651038691</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>4120.673162832804</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>3831.255992795844</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>3603.266441897827</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y25" t="n">
-        <v>3382.473862754297</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6208,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>2565.513299557012</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>2877.307316025036</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M27" t="n">
-        <v>3474.685803651587</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N27" t="n">
-        <v>4102.283767206194</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O27" t="n">
-        <v>4654.193497445481</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>4440.9326143059</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U28" t="n">
-        <v>4151.857387650098</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>3897.172899444211</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>3607.75572940725</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>3563.329808225389</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>3342.537229081859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>3060.83890577277</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>3658.217393399322</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>4285.815356953929</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O30" t="n">
-        <v>4690.833152398593</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3260.450525729772</v>
+        <v>3047.734188001555</v>
       </c>
       <c r="C31" t="n">
-        <v>3091.514342801865</v>
+        <v>2878.798005073648</v>
       </c>
       <c r="D31" t="n">
-        <v>2941.39770338953</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="E31" t="n">
-        <v>2793.484609807137</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309226</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
         <v>2337.686731866304</v>
@@ -6643,28 +6645,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U31" t="n">
-        <v>4288.376853076439</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V31" t="n">
-        <v>4033.692364870552</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W31" t="n">
-        <v>3744.275194833592</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X31" t="n">
-        <v>3516.285643935575</v>
+        <v>3343.01954787727</v>
       </c>
       <c r="Y31" t="n">
-        <v>3295.493064792045</v>
+        <v>3122.22696873374</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>2977.325134535463</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>2808.388951607556</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>2658.272312195221</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>2626.288510522017</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U34" t="n">
-        <v>2131.487582220359</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>3379.766178509233</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>3158.973599365703</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3047.734188001555</v>
+        <v>3012.408157764291</v>
       </c>
       <c r="C37" t="n">
-        <v>2878.798005073648</v>
+        <v>2883.976121413757</v>
       </c>
       <c r="D37" t="n">
-        <v>2728.681365661313</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661313</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H37" t="n">
         <v>2419.773435218391</v>
@@ -7120,25 +7122,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650995</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>4511.341667771992</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>4222.26644111619</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V37" t="n">
-        <v>3967.581952910303</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W37" t="n">
-        <v>3678.164782873342</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="X37" t="n">
-        <v>3450.175231975325</v>
+        <v>3414.849201738061</v>
       </c>
       <c r="Y37" t="n">
-        <v>3229.382652831795</v>
+        <v>3194.056622594531</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7156,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7166,7 +7168,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192592</v>
@@ -7181,10 +7183,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,13 +7195,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356194</v>
+        <v>2977.325134535463</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>2808.388951607556</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>2658.272312195221</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>2510.359218612828</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>2363.469271114917</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>2363.469271114917</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W40" t="n">
-        <v>1332.172021309389</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X40" t="n">
-        <v>1332.172021309389</v>
+        <v>3379.766178509233</v>
       </c>
       <c r="Y40" t="n">
-        <v>1111.379442165859</v>
+        <v>3158.973599365703</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7403,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7430,31 +7432,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913445</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>2510.268290553494</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>3005.593896769253</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>3602.972384395805</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>4230.570347950412</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950412</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.19349744548</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7600,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1870.758369404391</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.073881198504</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1326.656711161544</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>1098.667160263526</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.667160263526</v>
+        <v>1170.979132919728</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1057.613315601761</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2162.875197984421</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1873.799971328619</v>
       </c>
       <c r="V46" t="n">
-        <v>1977.461080510508</v>
+        <v>1619.115483122732</v>
       </c>
       <c r="W46" t="n">
-        <v>1688.043910473548</v>
+        <v>1329.698313085771</v>
       </c>
       <c r="X46" t="n">
-        <v>1460.05435957553</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y46" t="n">
-        <v>1239.261780432</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8067,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>211.0329012241564</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-7.859561739135471e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.12774237125653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>32.92052192791152</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>47.71290145456666</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.574752399522936</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>77.81244489841438</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>73.8577722395311</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>37.91759473995617</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>213.9468079295564</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>112.9489693570391</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>152.4862366927517</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>181.7279934189941</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>145.1398665102878</v>
+        <v>106.084127257074</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>114.769998990097</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>257.6444250803513</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>40.09910511159832</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>106.0841272570744</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>114.7699989900971</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>4.982661438910327</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>108.2431272522978</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>180.5487903941883</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>40.64330621514813</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>117.184729589052</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>789138.8408462541</v>
+        <v>798051.7320978603</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775938.4291806908</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>775938.4291806908</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806908</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806908</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775938.4291806908</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775938.4291806908</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.415891427</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914267</v>
-      </c>
-      <c r="C2" t="n">
-        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914265</v>
@@ -26323,34 +26325,34 @@
         <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="G2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="K2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="P2" t="n">
         <v>645717.279752005</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>7.680563094254467e-10</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>49110.09270605442</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>137930.4104072219</v>
+      </c>
+      <c r="C4" t="n">
         <v>89134.17909312021</v>
       </c>
-      <c r="C4" t="n">
-        <v>89134.17909312008</v>
-      </c>
       <c r="D4" t="n">
-        <v>89134.17909312012</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.14432176885</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768887</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768968</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
@@ -26439,22 +26441,22 @@
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768912</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768963</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26476,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-868979.4494906791</v>
+        <v>-688786.5505315592</v>
       </c>
       <c r="C6" t="n">
-        <v>459765.2962369127</v>
+        <v>256326.5546248073</v>
       </c>
       <c r="D6" t="n">
-        <v>459765.2962369134</v>
+        <v>459765.296236913</v>
       </c>
       <c r="E6" t="n">
-        <v>209235.1437989737</v>
+        <v>209235.1437989738</v>
       </c>
       <c r="F6" t="n">
-        <v>534647.6056063293</v>
+        <v>534647.6056063295</v>
       </c>
       <c r="G6" t="n">
-        <v>534647.6056063292</v>
+        <v>534647.605606329</v>
       </c>
       <c r="H6" t="n">
-        <v>534647.6056063294</v>
+        <v>534647.6056063288</v>
       </c>
       <c r="I6" t="n">
-        <v>534647.605606329</v>
+        <v>534647.6056063288</v>
       </c>
       <c r="J6" t="n">
-        <v>317116.4032090514</v>
+        <v>367042.4277963461</v>
       </c>
       <c r="K6" t="n">
-        <v>534647.6056063288</v>
+        <v>485537.5129002744</v>
       </c>
       <c r="L6" t="n">
         <v>534647.6056063288</v>
       </c>
       <c r="M6" t="n">
-        <v>449592.5776708172</v>
+        <v>449592.5776708174</v>
       </c>
       <c r="N6" t="n">
-        <v>534647.605606329</v>
+        <v>534647.6056063287</v>
       </c>
       <c r="O6" t="n">
-        <v>534647.6056063289</v>
+        <v>534647.6056063294</v>
       </c>
       <c r="P6" t="n">
         <v>534647.605606329</v>
@@ -26707,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022931</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>284.7488706672438</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>194.437776391485</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>241.8502302578478</v>
+        <v>24.26502575149922</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27628,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>140.9061777609844</v>
+        <v>226.4976123977391</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>158.1191626512901</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>77.41759119918714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>175.5611088790662</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>94.93667516389246</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,13 +28022,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6.135584697440294</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>271.7667078339023</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28099,13 +28101,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.628828306112892e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28564,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.916515846374476e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28752,7 +28754,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -29275,10 +29277,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29326,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29338,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29815,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30460,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31837,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>361.10816961766</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>309.7666854143577</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,16 +32317,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32335,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32555,25 +32557,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>324.5433647340733</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>624.1318526922785</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,19 +32785,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913755</v>
       </c>
       <c r="Q24" t="n">
-        <v>211.3773391483992</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>453.4978307576762</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33041,13 +33043,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>321.1112257697157</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>400.8433522134843</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,13 +33502,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>574.6535388222619</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33977,10 +33979,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>453.4978307576758</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,10 +34210,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>268.1779244693582</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,7 +34447,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,10 +34456,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>602.2300008170303</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>222.5537898377858</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>171.2123056344834</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35881,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396443</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394652</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35983,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,7 +36050,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010487</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>182.409330812055</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>481.5356082478341</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36376,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770453</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.3955650623777</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>314.943450977802</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,13 +36691,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875399</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>266.868944799154</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37625,10 +37627,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>314.9434509778017</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>130.3364854949992</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,10 +38104,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2671959.29903465</v>
+        <v>2667905.17327527</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9019281.97136596</v>
+        <v>9019281.971365957</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>6.185016579590724</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>175.293324286984</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>119.7418599146167</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>227.8726175723288</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>184.4241132557143</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>195.3635206396385</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>128.4038356853009</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>11.16818915334235</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>105.4771979831566</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>274.7944255145766</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>159.8902235615879</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>55.02344404120731</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>192.7891334611256</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.1190787273706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>100.0416311957212</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>68.62151774815479</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>251.0718348128881</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>107.5034532829751</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>18.16423677622388</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>32.47207866589218</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2529,10 +2529,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>97.54185816719604</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>105.6507867899569</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>73.74785292486325</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>31.66396365647216</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>127.1477159870295</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>25.52471385612679</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.58885292963951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>100.2207207382363</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1699.061860336089</v>
+        <v>884.1849331278579</v>
       </c>
       <c r="C2" t="n">
-        <v>1330.099343395678</v>
+        <v>884.1849331278579</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>884.1849331278579</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>884.1849331278579</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>473.1990283382503</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>57.49427806253919</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>57.49427806253919</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1876.125824262336</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1699.061860336089</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y2" t="n">
-        <v>1699.061860336089</v>
+        <v>1270.78477319198</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1715.293511287797</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>2047.363946463959</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2294.546680296256</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346.8756322024072</v>
+        <v>934.7929217761711</v>
       </c>
       <c r="C4" t="n">
-        <v>346.8756322024072</v>
+        <v>765.8567388482642</v>
       </c>
       <c r="D4" t="n">
-        <v>346.8756322024072</v>
+        <v>615.7400994359284</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>467.8270058535353</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>320.9370583556249</v>
       </c>
       <c r="G4" t="n">
         <v>199.9856847044969</v>
@@ -4488,52 +4488,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253778</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>817.9412670696076</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>528.524097032647</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X4" t="n">
-        <v>528.524097032647</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="Y4" t="n">
-        <v>528.524097032647</v>
+        <v>1116.441386606411</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565137</v>
+        <v>1859.132475219476</v>
       </c>
       <c r="C5" t="n">
-        <v>1343.379050624726</v>
+        <v>1490.169958279065</v>
       </c>
       <c r="D5" t="n">
-        <v>985.1133520179753</v>
+        <v>1131.904259672314</v>
       </c>
       <c r="E5" t="n">
-        <v>599.325099419731</v>
+        <v>1131.904259672314</v>
       </c>
       <c r="F5" t="n">
-        <v>592.3795986705276</v>
+        <v>720.9183548827066</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>305.845904727703</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866151</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605071</v>
+        <v>2635.87164725941</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629259</v>
+        <v>2245.732315283598</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658019</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V7" t="n">
-        <v>1705.527932658019</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W7" t="n">
-        <v>1575.827088531452</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.837537633435</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4801,22 +4801,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2451.710062899376</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.5602567208166</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>471.5602567208166</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>471.5602567208166</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>471.5602567208166</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>471.5602567208166</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.990851592604</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>874.0013006945865</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>653.2087215510563</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5032,58 +5032,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,52 +5175,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811332</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>398.6787020904383</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
@@ -5241,10 +5241,10 @@
         <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1132.402531511373</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.8410298377091</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
         <v>782.8410298377091</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5515,7 +5515,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5524,13 +5524,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>878.3568999154069</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C19" t="n">
-        <v>709.4207169875</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>559.3040775751642</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5703,22 +5703,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,10 +5767,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.5380889459582</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C22" t="n">
-        <v>599.6019060180513</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>599.6019060180513</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>451.6888124356582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761979</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>3210.485548300425</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>3838.083511855032</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>4389.993242094319</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>984.5772922261132</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C25" t="n">
-        <v>815.6411092982063</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>665.5244698858705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>517.6113763034774</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2098.535416025753</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6214,34 +6214,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2273.199413378161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3047.734188001555</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2878.798005073648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3343.01954787727</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3122.22696873374</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6779,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1550.665004989558</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2977.325134535463</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2808.388951607556</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2658.272312195221</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2626.288510522017</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2479.398563024106</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.9326143059</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>4151.857387650098</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3897.172899444211</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3607.75572940725</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3379.766178509233</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3158.973599365703</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6931,7 +6931,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6940,7 +6940,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6958,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3012.408157764291</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2883.976121413757</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218391</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3414.849201738061</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3194.056622594531</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7159,19 +7159,19 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7253,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1550.665004989558</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2977.325134535463</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>2808.388951607556</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>2658.272312195221</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>2510.359218612828</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2363.469271114917</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2363.469271114917</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3607.75572940725</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>3379.766178509233</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>3158.973599365703</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7450,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7490,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1520.445529061503</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1170.979132919728</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>699.2677182139842</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2162.875197984421</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1873.799971328619</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1619.115483122732</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1329.698313085771</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1101.708762187754</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>880.9161830442239</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>211.0329012241564</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>154.0169020165191</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1.347801705081159e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>90.39760398172393</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>32.92052192791152</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.71290145456666</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>186.1428431935229</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>77.81244489841438</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>35.11263957635606</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>37.91759473995617</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>268.0202376130202</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>112.9489693570391</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>119.8635921600922</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>106.084127257074</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>114.769998990097</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>40.09910511159832</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>114.7699989900971</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>108.2431272522978</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>117.184729589052</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806908</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806908</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775938.4291806906</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775938.4291806908</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775938.4291806908</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775938.4291806908</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520045</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.279752005</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520048</v>
@@ -26337,25 +26337,25 @@
         <v>645717.2797520048</v>
       </c>
       <c r="J2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520047</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520049</v>
       </c>
       <c r="L2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="N2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="O2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520047</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520054</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>203438.7416121063</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>49110.09270605457</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312005</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312012</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
@@ -26438,7 +26438,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
@@ -26450,7 +26450,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768959</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-688786.5505315592</v>
+        <v>-688786.5505315593</v>
       </c>
       <c r="C6" t="n">
-        <v>256326.5546248073</v>
+        <v>256326.554624807</v>
       </c>
       <c r="D6" t="n">
-        <v>459765.296236913</v>
+        <v>459765.2962369138</v>
       </c>
       <c r="E6" t="n">
-        <v>209235.1437989738</v>
+        <v>208887.7645446165</v>
       </c>
       <c r="F6" t="n">
-        <v>534647.6056063295</v>
+        <v>534300.2263519721</v>
       </c>
       <c r="G6" t="n">
-        <v>534647.605606329</v>
+        <v>534300.2263519719</v>
       </c>
       <c r="H6" t="n">
-        <v>534647.6056063288</v>
+        <v>534300.2263519719</v>
       </c>
       <c r="I6" t="n">
-        <v>534647.6056063288</v>
+        <v>534300.2263519719</v>
       </c>
       <c r="J6" t="n">
-        <v>367042.4277963461</v>
+        <v>366695.0485419892</v>
       </c>
       <c r="K6" t="n">
-        <v>485537.5129002744</v>
+        <v>485190.1336459171</v>
       </c>
       <c r="L6" t="n">
-        <v>534647.6056063288</v>
+        <v>534300.2263519719</v>
       </c>
       <c r="M6" t="n">
-        <v>449592.5776708174</v>
+        <v>449245.1984164602</v>
       </c>
       <c r="N6" t="n">
-        <v>534647.6056063287</v>
+        <v>534300.226351972</v>
       </c>
       <c r="O6" t="n">
-        <v>534647.6056063294</v>
+        <v>534300.226351972</v>
       </c>
       <c r="P6" t="n">
-        <v>534647.605606329</v>
+        <v>534300.2263519717</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,13 +26792,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757594</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>59.52489609287974</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>194.437776391485</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,19 +27539,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>46.56474013018745</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>24.26502575149922</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>226.4976123977391</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>99.24424374768194</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>158.1191626512901</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>214.5414662356948</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>277.256643680324</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>94.93667516389246</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.135584697440294</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532619</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,10 +32083,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -32098,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,10 +32311,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>324.5433647340733</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,10 +32794,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32806,7 +32806,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>437.8531046913755</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32955,7 +32955,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33025,10 +33025,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>321.1112257697157</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>400.8433522134843</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33499,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33508,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>316.3837382263852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33739,25 +33739,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>574.6535388222619</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33973,7 +33973,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>172.8142548092792</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34143,7 +34143,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34210,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>383.9182138639289</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>602.2300008170303</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>270.4976243473736</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312436</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,10 +35731,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>171.2123056344834</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>182.409330812055</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,10 +36442,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36454,7 +36454,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>303.8786972770453</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36673,10 +36673,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>266.868944799154</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37156,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>182.409330812055</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>432.0572943778175</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37791,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>249.9438064495987</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2667905.17327527</v>
+        <v>2669665.703578057</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9019281.971365957</v>
+        <v>9019281.971365955</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>37.50894619165335</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.185016579590724</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>119.7418599146167</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>66.40055121331473</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>238.7813195717471</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>195.3635206396385</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734125409</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414546</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>96.50675189249642</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>11.16818915334235</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>105.4771979831566</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>17.35112070699643</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>28.54282976175609</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>55.02344404120731</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>55.52079624060472</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>100.0416311957212</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>251.0718348128881</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>18.16423677622388</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>23.62554568141313</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>97.54185816719604</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>21.63824106824953</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346629</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>185.4048731212365</v>
       </c>
       <c r="W40" t="n">
-        <v>229.2938944146487</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>239.7247859410132</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>884.1849331278579</v>
+        <v>531.4162778577434</v>
       </c>
       <c r="C2" t="n">
-        <v>884.1849331278579</v>
+        <v>162.4537609173316</v>
       </c>
       <c r="D2" t="n">
-        <v>884.1849331278579</v>
+        <v>162.4537609173316</v>
       </c>
       <c r="E2" t="n">
-        <v>884.1849331278579</v>
+        <v>162.4537609173316</v>
       </c>
       <c r="F2" t="n">
-        <v>473.1990283382503</v>
+        <v>155.5082601681282</v>
       </c>
       <c r="G2" t="n">
-        <v>57.49427806253919</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>57.49427806253919</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,7 +4360,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4369,13 +4369,13 @@
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.78477319198</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1270.78477319198</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>551.2876347907468</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>845.9911918222185</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N3" t="n">
-        <v>1715.293511287797</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>2047.363946463959</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2294.546680296256</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>934.7929217761711</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C4" t="n">
-        <v>765.8567388482642</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D4" t="n">
-        <v>615.7400994359284</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E4" t="n">
-        <v>467.8270058535353</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F4" t="n">
-        <v>320.9370583556249</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>224.1731970904428</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>1337.233965749941</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y4" t="n">
-        <v>1116.441386606411</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1859.132475219476</v>
+        <v>1859.132475219477</v>
       </c>
       <c r="C5" t="n">
-        <v>1490.169958279065</v>
+        <v>1859.132475219477</v>
       </c>
       <c r="D5" t="n">
-        <v>1131.904259672314</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1131.904259672314</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>720.9183548827066</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>305.845904727703</v>
+        <v>406.0926155839473</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927146</v>
@@ -4567,13 +4567,13 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4594,19 +4594,19 @@
         <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="X5" t="n">
         <v>2635.87164725941</v>
@@ -4649,10 +4649,10 @@
         <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218345</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218345</v>
@@ -4728,13 +4728,13 @@
         <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760409</v>
+        <v>976.338775876041</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581906</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214137</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.50719300825</v>
+        <v>1829.812980520315</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1540.395810483355</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.809023826499</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2065.110222835254</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1696.147705894842</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1337.882007288092</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>952.0937546898474</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>541.1078499002399</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>126.0353997452364</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,25 +4804,25 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.58875505237</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218345</v>
@@ -4886,49 +4886,49 @@
         <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218345</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1898.463406915002</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1643.778918709115</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1354.361748672154</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1126.372197774137</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>1126.372197774137</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,13 +5053,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C13" t="n">
-        <v>696.7084350851671</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D13" t="n">
-        <v>546.5917956728314</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E13" t="n">
-        <v>398.6787020904383</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851784</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>2126.309465880251</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.624977674364</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,19 +5767,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>784.5811134804959</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>615.644930552589</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1959.113366595131</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1704.428878389244</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1415.011708352283</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1187.022157454266</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>966.2295783107356</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5989,10 +5989,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>366.9636532421613</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>199.7675539570412</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2098.535416025753</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1809.460189369951</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1554.775701164064</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>816.5764010855557</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6238,40 +6238,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6697,31 +6697,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6837,16 +6837,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,37 +6858,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
         <v>1746.193029533436</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7405,22 +7405,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7429,10 +7429,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7490,22 +7490,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>129.4330134067482</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.0169020165191</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-1.347801705081159e-13</v>
+        <v>-2.805783383408311e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-5.417393518204649e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>90.39760398172393</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>25.7450400779608</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>186.1428431935229</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>35.11263957635606</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>55.21102825632914</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>268.0202376130202</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>119.8635921600922</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>66.73277020259152</v>
       </c>
       <c r="W40" t="n">
-        <v>57.22910392194231</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>46.45968844823096</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775938.4291806908</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>775938.4291806908</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806908</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775938.4291806906</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775938.4291806906</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914272</v>
+        <v>656833.4158914273</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520045</v>
+        <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="M2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="O2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520047</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121063</v>
+        <v>203438.7416121066</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605457</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,28 +26420,28 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312005</v>
+        <v>89134.17909312002</v>
       </c>
       <c r="D4" t="n">
         <v>89134.17909312012</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768841</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.14432176885</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768832</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
@@ -26450,13 +26450,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-688786.5505315593</v>
+        <v>-688786.5505315589</v>
       </c>
       <c r="C6" t="n">
-        <v>256326.554624807</v>
+        <v>256326.5546248067</v>
       </c>
       <c r="D6" t="n">
         <v>459765.2962369138</v>
       </c>
       <c r="E6" t="n">
-        <v>208887.7645446165</v>
+        <v>209200.405873538</v>
       </c>
       <c r="F6" t="n">
-        <v>534300.2263519721</v>
+        <v>534612.8676808933</v>
       </c>
       <c r="G6" t="n">
-        <v>534300.2263519719</v>
+        <v>534612.8676808935</v>
       </c>
       <c r="H6" t="n">
-        <v>534300.2263519719</v>
+        <v>534612.8676808935</v>
       </c>
       <c r="I6" t="n">
-        <v>534300.2263519719</v>
+        <v>534612.8676808935</v>
       </c>
       <c r="J6" t="n">
-        <v>366695.0485419892</v>
+        <v>367007.6898709108</v>
       </c>
       <c r="K6" t="n">
-        <v>485190.1336459171</v>
+        <v>485502.7749748387</v>
       </c>
       <c r="L6" t="n">
-        <v>534300.2263519719</v>
+        <v>534612.8676808933</v>
       </c>
       <c r="M6" t="n">
-        <v>449245.1984164602</v>
+        <v>449557.8397453816</v>
       </c>
       <c r="N6" t="n">
-        <v>534300.226351972</v>
+        <v>534612.8676808935</v>
       </c>
       <c r="O6" t="n">
-        <v>534300.226351972</v>
+        <v>534612.8676808934</v>
       </c>
       <c r="P6" t="n">
-        <v>534300.2263519717</v>
+        <v>534612.8676808934</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022931</v>
@@ -26801,19 +26801,19 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757594</v>
+        <v>155.7118084757597</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>374.0387565813006</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>59.52489609287974</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>46.56474013018745</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>80.85095794181412</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>115.9017220489358</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>99.24424374768194</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,16 +27830,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>155.6308914313316</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>214.5414662356948</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>277.256643680324</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>257.6690084438568</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-1.463149601477198e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H5" t="n">
         <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,13 +31357,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026439</v>
@@ -31372,31 +31372,31 @@
         <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002929</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462216</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H7" t="n">
         <v>17.4721575931188</v>
@@ -31448,34 +31448,34 @@
         <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>152.5685698206127</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34780,7 +34780,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>316.020509650233</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34789,7 +34789,7 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
@@ -34798,10 +34798,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>270.4976243473736</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M5" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859627</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701983</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.633379393484</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675403</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451106</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789377</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>199.0097390795102</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
